--- a/excel/global_fdi_flows.xlsx
+++ b/excel/global_fdi_flows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romandogadin/Documents/GitHub/dataviz-shaded-area/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13463AC7-7AB7-EB41-BF60-55145A01C38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04D21AB-8492-BD40-9D75-303993E0AC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{B281C02B-9478-544C-9EFB-8DE9CFCA0DBF}"/>
   </bookViews>
@@ -16,34 +16,34 @@
     <sheet name="US Annual" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'US Annual'!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'US Annual'!$A$14:$A$23</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'US Annual'!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'US Annual'!$B$14:$B$23</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'US Annual'!$A$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'US Annual'!$A$14:$A$23</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'US Annual'!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'US Annual'!$B$14:$B$23</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'US Annual'!$A$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'US Annual'!$A$14:$A$23</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'US Annual'!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'US Annual'!$B$14:$B$23</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'US Annual'!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'US Annual'!$A$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'US Annual'!$A$14:$A$23</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'US Annual'!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'US Annual'!$B$14:$B$23</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'US Annual'!$A$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'US Annual'!$A$14:$A$23</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'US Annual'!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'US Annual'!$B$14:$B$23</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'US Annual'!$B$14:$B$23</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'US Annual'!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'US Annual'!$A$14:$A$23</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'US Annual'!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'US Annual'!$B$14:$B$23</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'US Annual'!$A$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'US Annual'!$A$14:$A$23</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'US Annual'!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'US Annual'!$B$14:$B$23</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'US Annual'!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'US Annual'!$C$14:$C$23</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'US Annual'!$B$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'US Annual'!$B$14:$B$23</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'US Annual'!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'US Annual'!$C$14:$C$23</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'US Annual'!$B$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'US Annual'!$B$14:$B$23</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'US Annual'!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'US Annual'!$C$14:$C$23</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'US Annual'!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'US Annual'!$B$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'US Annual'!$B$14:$B$23</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'US Annual'!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'US Annual'!$C$14:$C$23</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'US Annual'!$B$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'US Annual'!$B$14:$B$23</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'US Annual'!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'US Annual'!$C$14:$C$23</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'US Annual'!$C$14:$C$23</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'US Annual'!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'US Annual'!$B$14:$B$23</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'US Annual'!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'US Annual'!$C$14:$C$23</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'US Annual'!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'US Annual'!$B$14:$B$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,19 +64,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Year</t>
   </si>
   <si>
     <t>Annual Trend</t>
   </si>
+  <si>
+    <t>Top Y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,16 +87,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,12 +123,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,6 +179,69 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>US FDI Flows</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0150251798344326E-2"/>
+          <c:y val="1.3697188172186812E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -146,15 +250,13 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>Business Cycles</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="90000"/>
-              </a:schemeClr>
+              <a:schemeClr val="bg2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -163,7 +265,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'US Annual'!$A$14:$A$23</c:f>
+              <c:f>'US Annual'!$B$14:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -202,7 +304,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'US Annual'!$B$14:$B$23</c:f>
+              <c:f>'US Annual'!$C$14:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -226,7 +328,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F53F-4144-88DE-C9E4D20D2034}"/>
+              <c16:uniqueId val="{00000000-D8DF-4D4C-9CA4-73964A5E8A1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -246,10 +348,10 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'US Annual'!$A$1</c:f>
+              <c:f>'US Annual'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -272,7 +374,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'US Annual'!$A$14:$A$23</c:f>
+              <c:f>'US Annual'!$B$14:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -311,7 +413,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'US Annual'!$A$2:$A$11</c:f>
+              <c:f>'US Annual'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -342,7 +444,7 @@
                 <c:pt idx="8">
                   <c:v>405296</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="0">
                   <c:v>266287.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -441,6 +543,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>USD Millions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -500,12 +657,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -569,7 +721,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -677,11 +829,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -692,11 +839,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -728,9 +870,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -786,22 +925,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -971,6 +1111,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1039,19 +1190,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1089,15 +1241,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:colOff>664309</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>218832</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1422,169 +1574,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B580C189-6786-AC48-A12B-F677B2C5A3D2}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="B1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1">
         <v>217274</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
         <v>211985</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
         <v>483849</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
         <v>480016</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
         <v>325073</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
         <v>216415</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
         <v>256715</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
         <v>109120</v>
       </c>
-      <c r="B9">
+      <c r="C9" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
         <v>405296</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
         <v>266287.5</v>
       </c>
-      <c r="B11">
+      <c r="C11" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
         <v>2013</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
         <v>2014</v>
       </c>
-      <c r="B15">
+      <c r="C15" s="1">
         <v>600000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
         <v>2015</v>
       </c>
-      <c r="B16">
+      <c r="C16" s="1">
         <v>600000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
         <v>2018</v>
       </c>
-      <c r="B19">
+      <c r="C19" s="1">
         <v>600000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
         <v>2019</v>
       </c>
-      <c r="B20">
+      <c r="C20" s="1">
         <v>600000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
         <v>2020</v>
       </c>
-      <c r="B21">
+      <c r="C21" s="1">
         <v>600000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
         <v>2022</v>
       </c>
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
